--- a/descriptive_cat_m.xlsx
+++ b/descriptive_cat_m.xlsx
@@ -5,27 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xx-re\OneDrive\Documentos\GitHub\PaperCienciaDados-PunoPeru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PaperCienciaDados-PunoPeru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383481E0-B4E1-43E2-8CF7-E55C0E9987A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FEDDD1-FD54-40A1-959F-C0A1F4DE4FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$54</definedName>
+    <definedName name="OLE_LINK1" localSheetId="2">Planilha2!$E$16</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="124">
   <si>
     <t>inlaid_wall</t>
   </si>
@@ -280,12 +295,132 @@
   </si>
   <si>
     <t>The household head achieved pos-graduate education</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>rank_test_MCC</t>
+  </si>
+  <si>
+    <t>rank_test_NPV</t>
+  </si>
+  <si>
+    <t>Before NPV optimization</t>
+  </si>
+  <si>
+    <t>After NPV optimization</t>
+  </si>
+  <si>
+    <t>criterion: 'entropy',</t>
+  </si>
+  <si>
+    <t>max_depth: 9,</t>
+  </si>
+  <si>
+    <t>max_features: 0.1412288575695536,</t>
+  </si>
+  <si>
+    <t>min_samples_leaf: 0.00011405469762752375,</t>
+  </si>
+  <si>
+    <t>min_samples_split: 0.0019258486522183338,</t>
+  </si>
+  <si>
+    <t>n_estimators: 87</t>
+  </si>
+  <si>
+    <t>MCC= 56.50</t>
+  </si>
+  <si>
+    <t>NPV= 81.87</t>
+  </si>
+  <si>
+    <t>AUC= 82.83</t>
+  </si>
+  <si>
+    <t>Accuracy= 78.62</t>
+  </si>
+  <si>
+    <t>F1-Score= 82.44</t>
+  </si>
+  <si>
+    <t>MCC= 56.37 (-)</t>
+  </si>
+  <si>
+    <t>NPV= 82.26 (+)</t>
+  </si>
+  <si>
+    <t>AUC= 82.92 (+)</t>
+  </si>
+  <si>
+    <t>Accuracy= 78.53 (-)</t>
+  </si>
+  <si>
+    <t>F1-Score= 82.45 (+)</t>
+  </si>
+  <si>
+    <t>min_samples_split: 0.012308008568602133,</t>
+  </si>
+  <si>
+    <t>n_estimators: 66</t>
+  </si>
+  <si>
+    <t>max_features: 0.1417321632369702,</t>
+  </si>
+  <si>
+    <t>min_samples_leaf: 0.0023572481924583194,</t>
+  </si>
+  <si>
+    <t>Iteration Index</t>
+  </si>
+  <si>
+    <t>ENLR</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>C: 0.1</t>
+  </si>
+  <si>
+    <t>l1_ratio: 0.13843684136435142</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,6 +433,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -352,25 +488,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,15 +810,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="A32:C32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -686,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +837,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -708,7 +848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -719,7 +859,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,7 +870,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,7 +881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -752,7 +892,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -761,6 +901,174 @@
       </c>
       <c r="C8">
         <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" t="s">
+        <v>101</v>
+      </c>
+      <c r="V14" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" t="s">
+        <v>105</v>
+      </c>
+      <c r="U15" t="s">
+        <v>106</v>
+      </c>
+      <c r="V15" t="s">
+        <v>107</v>
+      </c>
+      <c r="W15" t="s">
+        <v>108</v>
+      </c>
+      <c r="X15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -771,15 +1079,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A71412-EDD1-46A9-BB92-E295DABE6C68}">
-  <dimension ref="B1:E79"/>
+  <dimension ref="B1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:E71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +1101,7 @@
         <v>0.17540687160940319</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,8 +1111,15 @@
       <c r="E2" s="2">
         <v>0.1410488245931284</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,8 +1129,17 @@
       <c r="E3" s="2">
         <v>0.23417721518987339</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I3" s="8">
+        <v>1929</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +1149,17 @@
       <c r="E4" s="2">
         <v>0.28119349005424948</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I4" s="8">
+        <v>630</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,8 +1169,17 @@
       <c r="E5" s="2">
         <v>0.2043399638336347</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I5" s="8">
+        <v>287</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,8 +1189,17 @@
       <c r="E6" s="2">
         <v>0.39963833634719709</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I6" s="8">
+        <v>959</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +1209,28 @@
       <c r="E7" s="2">
         <v>0.39963833634719709</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I7" s="8">
+        <v>1462</v>
+      </c>
+      <c r="J7" s="8">
+        <v>5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="8">
+        <v>851</v>
+      </c>
+      <c r="J8" s="8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +1240,17 @@
       <c r="E9" s="2">
         <v>0.85352622061482819</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I9" s="8">
+        <v>1546</v>
+      </c>
+      <c r="J9" s="8">
+        <v>7</v>
+      </c>
+      <c r="K9" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -877,8 +1260,17 @@
       <c r="E10" s="2">
         <v>0.86347197106690776</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I10" s="8">
+        <v>1319</v>
+      </c>
+      <c r="J10" s="8">
+        <v>8</v>
+      </c>
+      <c r="K10" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +1280,17 @@
       <c r="E11" s="2">
         <v>0.82549728752260398</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I11" s="8">
+        <v>1733</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,8 +1300,17 @@
       <c r="E12" s="2">
         <v>0.20886075949367089</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I12" s="8">
+        <v>1827</v>
+      </c>
+      <c r="J12" s="8">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -911,7 +1321,7 @@
         <v>0.25949367088607589</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -921,8 +1331,15 @@
       <c r="E14" s="2">
         <v>0.32640144665461118</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -932,8 +1349,17 @@
       <c r="E15" s="2">
         <v>0.20614828209764921</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I15" s="8">
+        <v>630</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -943,8 +1369,17 @@
       <c r="E16" s="2">
         <v>0.33815551537070532</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I16" s="8">
+        <v>287</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -954,8 +1389,35 @@
       <c r="E17" s="2">
         <v>0.11211573236889689</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I17" s="8">
+        <v>1276</v>
+      </c>
+      <c r="J17" s="8">
+        <v>12</v>
+      </c>
+      <c r="K17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="8">
+        <v>1733</v>
+      </c>
+      <c r="J18" s="8">
+        <v>9</v>
+      </c>
+      <c r="K18" s="8">
+        <v>4</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.564953502517758</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>P18*100</f>
+        <v>56.495350251775797</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -965,8 +1427,24 @@
       <c r="E19" s="2">
         <v>0.34538878842676313</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I19" s="8">
+        <v>959</v>
+      </c>
+      <c r="J19" s="8">
+        <v>4</v>
+      </c>
+      <c r="K19" s="8">
+        <v>5</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.81866483538133705</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" ref="Q19:Q22" si="0">P19*100</f>
+        <v>81.866483538133707</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -976,8 +1454,25 @@
       <c r="E20" s="2">
         <v>0.48010849909584091</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I20" s="8">
+        <v>1319</v>
+      </c>
+      <c r="J20" s="8">
+        <v>8</v>
+      </c>
+      <c r="K20" s="8">
+        <v>6</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="P20" s="9">
+        <v>0.82830678184680395</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="0"/>
+        <v>82.830678184680394</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
@@ -987,8 +1482,25 @@
       <c r="E21" s="2">
         <v>0.1103074141048825</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I21" s="8">
+        <v>1462</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="8">
+        <v>7</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="P21" s="9">
+        <v>0.78617526617526601</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="0"/>
+        <v>78.617526617526607</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -998,8 +1510,25 @@
       <c r="E22" s="2">
         <v>0.60397830018083187</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I22" s="8">
+        <v>1546</v>
+      </c>
+      <c r="J22" s="8">
+        <v>7</v>
+      </c>
+      <c r="K22" s="8">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="P22" s="7">
+        <v>0.82440949032495703</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="0"/>
+        <v>82.440949032495709</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,8 +1538,17 @@
       <c r="E23" s="2">
         <v>0.34538878842676313</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I23" s="8">
+        <v>1337</v>
+      </c>
+      <c r="J23" s="8">
+        <v>41</v>
+      </c>
+      <c r="K23" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1020,8 +1558,24 @@
       <c r="E24" s="2">
         <v>0.91952983725135629</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I24" s="8">
+        <v>1569</v>
+      </c>
+      <c r="J24" s="8">
+        <v>40</v>
+      </c>
+      <c r="K24" s="8">
+        <v>10</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.56373235668047195</v>
+      </c>
+      <c r="Q24" s="7">
+        <f>P24*100</f>
+        <v>56.373235668047194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1031,8 +1585,15 @@
       <c r="E25" s="2">
         <v>4.6112115732368897E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P25" s="3">
+        <v>0.82259763371190597</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" ref="Q25:Q28" si="1">P25*100</f>
+        <v>82.259763371190601</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1042,8 +1603,15 @@
       <c r="E26" s="2">
         <v>4.4303797468354431E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P26" s="3">
+        <v>0.82924928755724003</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="1"/>
+        <v>82.924928755723997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1053,8 +1621,15 @@
       <c r="E27" s="2">
         <v>0.43851717902350812</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P27" s="3">
+        <v>0.78527027027026997</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="1"/>
+        <v>78.527027027027003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1064,8 +1639,15 @@
       <c r="E28" s="2">
         <v>5.5153707052441228E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>0.82446028844105801</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="1"/>
+        <v>82.446028844105797</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1658,7 @@
         <v>0.12748643761301989</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1087,7 +1669,7 @@
         <v>0.37703435804701629</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1680,7 @@
         <v>3.074141048824593E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1109,7 +1691,7 @@
         <v>0.83001808318264014</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1120,7 +1702,7 @@
         <v>0.10307414104882461</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1131,7 +1713,7 @@
         <v>0.12839059674502709</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1142,7 +1724,7 @@
         <v>0.80470162748643759</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>55</v>
       </c>
@@ -1153,7 +1735,7 @@
         <v>0.48462929475587702</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1164,7 +1746,7 @@
         <v>0.1193490054249548</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1175,7 +1757,7 @@
         <v>8.3182640144665462E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>58</v>
       </c>
@@ -1186,7 +1768,7 @@
         <v>0.28209764918625679</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>59</v>
       </c>
@@ -1197,7 +1779,7 @@
         <v>0.17540687160940319</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
@@ -1208,7 +1790,7 @@
         <v>0.2386980108499096</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>61</v>
       </c>
@@ -1219,7 +1801,7 @@
         <v>0.30379746835443039</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
@@ -1230,7 +1812,7 @@
         <v>0.89059674502712483</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -1241,7 +1823,7 @@
         <v>0.1012658227848101</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>64</v>
       </c>
@@ -1252,7 +1834,7 @@
         <v>5.5153707052441228E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
@@ -1263,7 +1845,7 @@
         <v>3.7070524412296572E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
@@ -1274,7 +1856,7 @@
         <v>6.6907775768535266E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
@@ -1285,7 +1867,7 @@
         <v>0.27757685352622058</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
@@ -1296,7 +1878,7 @@
         <v>7.4141048824593131E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>69</v>
       </c>
@@ -1307,7 +1889,7 @@
         <v>0.23056057866184451</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>70</v>
       </c>
@@ -1318,7 +1900,7 @@
         <v>7.7757685352622063E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1329,7 +1911,7 @@
         <v>0.86708860759493667</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>37</v>
       </c>
@@ -1340,7 +1922,7 @@
         <v>0.29656419529837252</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
@@ -1351,7 +1933,7 @@
         <v>0.43580470162748641</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>39</v>
       </c>
@@ -1362,7 +1944,7 @@
         <v>0.19620253164556961</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>40</v>
       </c>
@@ -1373,7 +1955,7 @@
         <v>0.64014466546112114</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>41</v>
       </c>
@@ -1384,7 +1966,7 @@
         <v>0.2386980108499096</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>42</v>
       </c>
@@ -1395,7 +1977,7 @@
         <v>4.7920433996383363E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>43</v>
       </c>
@@ -1406,7 +1988,7 @@
         <v>4.6112115732368897E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1999,7 @@
         <v>2.7124773960217001E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +2010,7 @@
         <v>9.3128390596745034E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>34</v>
       </c>
@@ -1439,7 +2021,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>35</v>
       </c>
@@ -1450,7 +2032,7 @@
         <v>0.32640144665461118</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>36</v>
       </c>
@@ -1461,7 +2043,7 @@
         <v>0.29475587703435813</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>45</v>
       </c>
@@ -1472,7 +2054,7 @@
         <v>0.97830018083182635</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>46</v>
       </c>
@@ -1483,7 +2065,7 @@
         <v>0.22332730560578659</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>47</v>
       </c>
@@ -1494,7 +2076,7 @@
         <v>0.27576853526220613</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
@@ -1505,7 +2087,7 @@
         <v>0.87522603978300184</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>49</v>
       </c>
@@ -1516,7 +2098,7 @@
         <v>0.66817359855334535</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>50</v>
       </c>
@@ -1527,7 +2109,7 @@
         <v>0.1790235081374322</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>51</v>
       </c>
@@ -1538,7 +2120,7 @@
         <v>0.72603978300180827</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>52</v>
       </c>
@@ -1549,7 +2131,7 @@
         <v>0.31735985533453892</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>30</v>
       </c>
@@ -1560,14 +2142,88 @@
         <v>0.60578661844484627</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="3" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="J79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80">
+        <v>1106</v>
+      </c>
+      <c r="D80" s="7">
+        <v>5642.4913999999999</v>
+      </c>
+      <c r="E80" s="7">
+        <v>4727.5314669999998</v>
+      </c>
+      <c r="F80" s="7">
+        <v>832.35080000000005</v>
+      </c>
+      <c r="G80" s="7">
+        <v>2999.4817499999999</v>
+      </c>
+      <c r="H80" s="7">
+        <v>4307.1814999999997</v>
+      </c>
+      <c r="I80" s="7">
+        <v>6349.4714999999997</v>
+      </c>
+      <c r="J80" s="7">
+        <v>69328.39</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
-        <v>72</v>
+      <c r="C81">
+        <v>1106</v>
+      </c>
+      <c r="D81" s="7">
+        <v>3836.4231460000001</v>
+      </c>
+      <c r="E81" s="7">
+        <v>437.22878600000001</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1529</v>
+      </c>
+      <c r="G81" s="7">
+        <v>3830</v>
+      </c>
+      <c r="H81" s="7">
+        <v>3860</v>
+      </c>
+      <c r="I81" s="7">
+        <v>3914.5</v>
+      </c>
+      <c r="J81" s="7">
+        <v>4835</v>
       </c>
     </row>
   </sheetData>
@@ -1581,75 +2237,387 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:A12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C22FE-F5DE-4C8C-9F0A-EA6E30862890}">
+  <dimension ref="B1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>853</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>853</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3">
+        <v>0.54575587597950204</v>
+      </c>
+      <c r="M3" s="7">
+        <f>L3*100</f>
+        <v>54.575587597950204</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>347</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>347</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4">
+        <v>0.80015477460734796</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M7" si="0">L4*100</f>
+        <v>80.0154774607348</v>
+      </c>
+      <c r="P4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0.138436841364351</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1492</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1492</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5">
+        <v>0.82091106880485698</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>82.091106880485697</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1099</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1099</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6">
+        <v>0.77756756756756695</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>77.756756756756701</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1355</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1355</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7">
+        <v>0.816545569145679</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>81.654556914567905</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1163</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1163</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1314</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>518</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>817</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>817</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>1061</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1061</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>1314</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>